--- a/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
+++ b/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>steps between updates</t>
-  </si>
-  <si>
     <t>rows</t>
   </si>
   <si>
@@ -86,13 +83,22 @@
   </si>
   <si>
     <t>req 10h</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>complexity guess</t>
+  </si>
+  <si>
+    <t>Big Red run time estimate (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +114,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +134,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,23 +164,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Big Red jobs</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(dimensionality</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> * #trainingSteps * mapSize / #processes) vs runtime  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.37404607757363662"/>
+                  <c:y val="-9.0929036347236786E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$O$6,Sheet1!$O$7,Sheet1!$O$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>108675000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1086750000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>579600000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$Q$6,Sheet1!$Q$7,Sheet1!$Q$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="52966912"/>
+        <c:axId val="52965376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52966912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52965376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52965376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52966912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,270 +664,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="19" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="F1"/>
-      <c r="I1"/>
+    <row r="1" spans="1:19">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="F2"/>
-      <c r="I2"/>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>1000000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/E2</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2*H2</f>
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <f>B2*D2*I2/M2</f>
+        <v>84000000</v>
+      </c>
+      <c r="P2">
+        <f>0.00000000007*O2 + 7.74</f>
+        <v>7.7458800000000005</v>
+      </c>
+      <c r="Q2">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="F3"/>
-      <c r="I3"/>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3/E3</f>
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <f>G3*H3</f>
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O13" si="0">B3*D3*I3/M3</f>
+        <v>336000000</v>
+      </c>
+      <c r="P3">
+        <f>0.00000000007*O3 + 7.74</f>
+        <v>7.7635200000000006</v>
+      </c>
+      <c r="Q3">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="F4"/>
-      <c r="I4"/>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>1000000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4/E4</f>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>21000000</v>
+      </c>
+      <c r="P4">
+        <f>0.00000000007*O4 + 7.74</f>
+        <v>7.7414700000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="F5"/>
-      <c r="I5"/>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2000000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5/E5</f>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>252</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>75600</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>22680000000</v>
+      </c>
+      <c r="P5">
+        <f>0.00000000007*O5 + 7.74</f>
+        <v>9.3276000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2300</v>
+      </c>
+      <c r="C6">
+        <v>200000</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6/E6</f>
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
+      <c r="G6">
+        <v>252</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>75600</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6">
+        <v>250</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>108675000000</v>
+      </c>
+      <c r="P6">
+        <f>0.00000000007*O6 + 7.74</f>
+        <v>15.347250000000001</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2300</v>
       </c>
       <c r="C7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="D7">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F7" s="1">
         <f>D7/E7</f>
         <v>100</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="I7" s="1">
         <f>G7*H7</f>
-        <v>112</v>
+        <v>75600</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <f>B7*D7*I7/M7</f>
-        <v>84000000</v>
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>1086750000000</v>
       </c>
       <c r="P7">
-        <v>1.3</v>
+        <f>0.00000000007*O7 + 7.74</f>
+        <v>83.8125</v>
+      </c>
+      <c r="Q7">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2300</v>
       </c>
       <c r="C8">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="D8">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F8" s="1">
         <f>D8/E8</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1">
         <f>G8*H8</f>
-        <v>112</v>
+        <v>75600</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f>B8*D8*I8/M8</f>
-        <v>336000000</v>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>217350000000</v>
       </c>
       <c r="P8">
-        <v>5.2</v>
+        <f>0.00000000007*O8 + 7.74</f>
+        <v>22.954500000000003</v>
+      </c>
+      <c r="Q8">
+        <v>6.5</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2300</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="1">
         <f>D9/E9</f>
         <v>100</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1">
         <f>G9*H9</f>
-        <v>112</v>
+        <v>75600</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <f>B9*D9*I9/M9</f>
-        <v>21000000</v>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>2173500000000</v>
       </c>
       <c r="P9">
-        <v>0.4</v>
+        <f>0.00000000007*O9 + 7.74</f>
+        <v>159.88500000000002</v>
+      </c>
+      <c r="Q9">
+        <v>44</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2300</v>
       </c>
       <c r="C10">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F10" s="1">
         <f>D10/E10</f>
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G10">
         <v>252</v>
@@ -725,295 +1232,171 @@
         <v>75600</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f>B10*D10*I10/M10</f>
-        <v>22680000000</v>
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>579600000000</v>
       </c>
       <c r="P10">
-        <v>60</v>
+        <f>0.00000000007*O10 + 7.74</f>
+        <v>48.312000000000005</v>
+      </c>
+      <c r="Q10">
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:19">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>2300</v>
       </c>
-      <c r="C11">
-        <v>200000</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
-        <v>500</v>
-      </c>
-      <c r="F11" s="1">
-        <f>D11/E11</f>
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>252</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>300</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <f>G11*H11</f>
         <v>75600</v>
       </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>250</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <f>B11*D11*I11/M11</f>
-        <v>108675000000</v>
-      </c>
-      <c r="P11">
-        <v>15</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>60</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>5796000000000</v>
+      </c>
+      <c r="P11" s="3">
+        <f>0.00000000007*O11 + 7.74</f>
+        <v>413.46000000000004</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:19">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
         <v>2300</v>
       </c>
-      <c r="C12">
-        <v>200000</v>
-      </c>
-      <c r="D12">
-        <v>50000</v>
-      </c>
-      <c r="E12">
-        <v>500</v>
-      </c>
-      <c r="F12" s="1">
-        <f>D12/E12</f>
-        <v>100</v>
-      </c>
-      <c r="G12">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f>2000000*50</f>
+        <v>100000000</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>252</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <f>G12*H12</f>
         <v>75600</v>
       </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>250</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <f>B12*D12*I12/M12</f>
-        <v>1086750000000</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>60</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>289800000000000</v>
+      </c>
+      <c r="P12" s="3">
+        <f>0.00000000007*O12 + 7.74</f>
+        <v>20293.740000000002</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:19">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>2300</v>
       </c>
-      <c r="C13">
-        <v>200000</v>
-      </c>
-      <c r="D13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="F13" s="1">
-        <f>D13/E13</f>
-        <v>10</v>
-      </c>
-      <c r="G13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f>2000000*50</f>
+        <v>100000000</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>252</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>300</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <f>G13*H13</f>
         <v>75600</v>
       </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13">
-        <v>250</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <f>B13*D13*I13/M13</f>
-        <v>217350000000</v>
-      </c>
-      <c r="P13">
-        <v>6.5</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>2300</v>
-      </c>
-      <c r="C14">
-        <v>200000</v>
-      </c>
-      <c r="D14">
-        <v>50000</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
-      </c>
-      <c r="F14" s="1">
-        <f>D14/E14</f>
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>252</v>
-      </c>
-      <c r="H14">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>N13*100</f>
         <v>300</v>
       </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>75600</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>250</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>2300</v>
-      </c>
-      <c r="C15">
-        <v>200000</v>
-      </c>
-      <c r="D15">
-        <v>200000</v>
-      </c>
-      <c r="E15">
-        <v>500</v>
-      </c>
-      <c r="F15" s="1">
-        <f>D15/E15</f>
-        <v>400</v>
-      </c>
-      <c r="G15">
-        <v>252</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>75600</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>250</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>60</v>
-      </c>
-      <c r="N15">
+      <c r="N13" s="3">
         <v>3</v>
       </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>57960000000000</v>
+      </c>
+      <c r="P13" s="3">
+        <f>0.00000000007*O13 + 7.74</f>
+        <v>4064.94</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:S10">
+    <sortCondition descending="1" ref="E8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
+++ b/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>dim</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>Big Red run time estimate (m)</t>
+  </si>
+  <si>
+    <t>check earlier run from 12/23</t>
+  </si>
+  <si>
+    <t>check later run from 12/23</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>euclidean</t>
   </si>
 </sst>
 </file>
@@ -181,13 +193,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -257,8 +270,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.37404607757363662"/>
-                  <c:y val="-9.0929036347236786E-2"/>
+                  <c:x val="0.37404607757363673"/>
+                  <c:y val="-9.0929036347236827E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -266,7 +279,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$O$6,Sheet1!$O$7,Sheet1!$O$10)</c:f>
+              <c:f>(Sheet1!$P$6,Sheet1!$P$7,Sheet1!$P$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -284,7 +297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$Q$6,Sheet1!$Q$7,Sheet1!$Q$10)</c:f>
+              <c:f>(Sheet1!$R$6,Sheet1!$R$7,Sheet1!$R$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -301,23 +314,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="52966912"/>
-        <c:axId val="52965376"/>
+        <c:axId val="62916096"/>
+        <c:axId val="62917632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52966912"/>
+        <c:axId val="62916096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52965376"/>
+        <c:crossAx val="62917632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52965376"/>
+        <c:axId val="62917632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +338,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52966912"/>
+        <c:crossAx val="62916096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -338,7 +351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -349,15 +362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -664,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,16 +696,16 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -727,28 +740,31 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -765,7 +781,7 @@
         <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <f>D2/E2</f>
+        <f t="shared" ref="F2:F12" si="0">D2/E2</f>
         <v>100</v>
       </c>
       <c r="G2">
@@ -775,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I12" si="1">G2*H2</f>
         <v>112</v>
       </c>
       <c r="J2" t="s">
@@ -787,22 +803,25 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="O2" s="1">
-        <f>B2*D2*I2/M2</f>
+      <c r="P2" s="1">
+        <f>B2*D2*I2/N2</f>
         <v>84000000</v>
       </c>
-      <c r="P2">
-        <f>0.00000000007*O2 + 7.74</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q12" si="2">0.00000000007*P2 + 7.74</f>
         <v>7.7458800000000005</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -819,7 +838,7 @@
         <v>10000</v>
       </c>
       <c r="F3" s="1">
-        <f>D3/E3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G3">
@@ -829,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="1">
-        <f>G3*H3</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="J3" t="s">
@@ -841,22 +860,25 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O13" si="0">B3*D3*I3/M3</f>
+      <c r="P3" s="1">
+        <f>B3*D3*I3/N3</f>
         <v>336000000</v>
       </c>
-      <c r="P3">
-        <f>0.00000000007*O3 + 7.74</f>
+      <c r="Q3">
+        <f t="shared" si="2"/>
         <v>7.7635200000000006</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -873,7 +895,7 @@
         <v>10000</v>
       </c>
       <c r="F4" s="1">
-        <f>D4/E4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G4">
@@ -883,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1">
-        <f>G4*H4</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="J4" t="s">
@@ -895,22 +917,25 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
         <v>16</v>
       </c>
-      <c r="O4" s="1">
-        <f t="shared" si="0"/>
+      <c r="P4" s="1">
+        <f>B4*D4*I4/N4</f>
         <v>21000000</v>
       </c>
-      <c r="P4">
-        <f>0.00000000007*O4 + 7.74</f>
+      <c r="Q4">
+        <f t="shared" si="2"/>
         <v>7.7414700000000005</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -927,7 +952,7 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1">
-        <f>D5/E5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G5">
@@ -937,7 +962,7 @@
         <v>300</v>
       </c>
       <c r="I5" s="1">
-        <f>G5*H5</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J5" t="s">
@@ -949,22 +974,25 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" s="1">
-        <f t="shared" si="0"/>
+      <c r="P5" s="1">
+        <f>B5*D5*I5/N5</f>
         <v>22680000000</v>
       </c>
-      <c r="P5">
-        <f>0.00000000007*O5 + 7.74</f>
+      <c r="Q5">
+        <f t="shared" si="2"/>
         <v>9.3276000000000003</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -981,7 +1009,7 @@
         <v>500</v>
       </c>
       <c r="F6" s="1">
-        <f>D6/E6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G6">
@@ -991,7 +1019,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="1">
-        <f>G6*H6</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J6" t="s">
@@ -1003,25 +1031,28 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6">
         <v>8</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
-        <f t="shared" si="0"/>
+      <c r="P6" s="1">
+        <f>B6*D6*I6/N6</f>
         <v>108675000000</v>
       </c>
-      <c r="P6">
-        <f>0.00000000007*O6 + 7.74</f>
+      <c r="Q6">
+        <f t="shared" si="2"/>
         <v>15.347250000000001</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1069,7 @@
         <v>500</v>
       </c>
       <c r="F7" s="1">
-        <f>D7/E7</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G7">
@@ -1048,7 +1079,7 @@
         <v>300</v>
       </c>
       <c r="I7" s="1">
-        <f>G7*H7</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J7" t="s">
@@ -1060,25 +1091,28 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7">
         <v>8</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="O7" s="1">
-        <f t="shared" si="0"/>
+      <c r="P7" s="1">
+        <f>B7*D7*I7/N7</f>
         <v>1086750000000</v>
       </c>
-      <c r="P7">
-        <f>0.00000000007*O7 + 7.74</f>
+      <c r="Q7">
+        <f t="shared" si="2"/>
         <v>83.8125</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1129,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="1">
-        <f>D8/E8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G8">
@@ -1105,7 +1139,7 @@
         <v>300</v>
       </c>
       <c r="I8" s="1">
-        <f>G8*H8</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J8" t="s">
@@ -1117,31 +1151,34 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>4</v>
+      <c r="M8" t="s">
+        <v>29</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
-      <c r="O8" s="1">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <f>B8*D8*I8/N8</f>
         <v>217350000000</v>
       </c>
-      <c r="P8">
-        <f>0.00000000007*O8 + 7.74</f>
+      <c r="Q8">
+        <f t="shared" si="2"/>
         <v>22.954500000000003</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.5</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1195,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="1">
-        <f>D9/E9</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G9">
@@ -1168,7 +1205,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="1">
-        <f>G9*H9</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J9" t="s">
@@ -1180,28 +1217,31 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>4</v>
+      <c r="M9" t="s">
+        <v>29</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
-      <c r="O9" s="1">
-        <f t="shared" si="0"/>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <f>B9*D9*I9/N9</f>
         <v>2173500000000</v>
       </c>
-      <c r="P9">
-        <f>0.00000000007*O9 + 7.74</f>
+      <c r="Q9">
+        <f t="shared" si="2"/>
         <v>159.88500000000002</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>44</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1258,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="1">
-        <f>D10/E10</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G10">
@@ -1228,7 +1268,7 @@
         <v>300</v>
       </c>
       <c r="I10" s="1">
-        <f>G10*H10</f>
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
       <c r="J10" t="s">
@@ -1240,157 +1280,280 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10">
         <v>60</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
+        <f>B10*D10*I10/N10</f>
+        <v>579600000000</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>48.312000000000005</v>
+      </c>
+      <c r="R10">
+        <v>51</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2300</v>
+      </c>
+      <c r="C11">
+        <v>200000</v>
+      </c>
+      <c r="D11">
+        <v>500000</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <v>252</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>75600</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" s="6">
+        <f>B11*D11*I11/N11</f>
         <v>579600000000</v>
       </c>
-      <c r="P10">
-        <f>0.00000000007*O10 + 7.74</f>
+      <c r="Q11">
+        <f t="shared" si="2"/>
         <v>48.312000000000005</v>
       </c>
-      <c r="Q10">
-        <v>51</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>2300</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C12">
         <v>2000000</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="D12">
+        <v>500000</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G12">
         <v>252</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12">
         <v>300</v>
       </c>
-      <c r="I11" s="4">
-        <f>G11*H11</f>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>75600</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>225</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" s="6">
+        <f>B12*D12*I12/N12</f>
+        <v>386400000000</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>34.788000000000004</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>252</v>
+      </c>
+      <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="4">
+        <f>G15*H15</f>
+        <v>75600</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3">
         <v>60</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="5">
-        <f t="shared" si="0"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5">
+        <f>B15*D15*I15/N15</f>
         <v>5796000000000</v>
       </c>
-      <c r="P11" s="3">
-        <f>0.00000000007*O11 + 7.74</f>
+      <c r="Q15" s="3">
+        <f>0.00000000007*P15 + 7.74</f>
         <v>413.46000000000004</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+    <row r="16" spans="1:20">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>2300</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <f>2000000*50</f>
         <v>100000000</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>252</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H16" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="4">
-        <f>G12*H12</f>
+      <c r="I16" s="4">
+        <f>G16*H16</f>
         <v>75600</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3">
         <v>60</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5">
+        <f>B16*D16*I16/N16</f>
         <v>289800000000000</v>
       </c>
-      <c r="P12" s="3">
-        <f>0.00000000007*O12 + 7.74</f>
+      <c r="Q16" s="3">
+        <f>0.00000000007*P16 + 7.74</f>
         <v>20293.740000000002</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+    <row r="17" spans="1:20">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>2300</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <f>2000000*50</f>
         <v>100000000</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>252</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="I13" s="4">
-        <f>G13*H13</f>
+      <c r="I17" s="4">
+        <f>G17*H17</f>
         <v>75600</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <f>N13*100</f>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3">
+        <f>O17*100</f>
         <v>300</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O17" s="3">
         <v>3</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="0"/>
+      <c r="P17" s="5">
+        <f>B17*D17*I17/N17</f>
         <v>57960000000000</v>
       </c>
-      <c r="P13" s="3">
-        <f>0.00000000007*O13 + 7.74</f>
+      <c r="Q17" s="3">
+        <f>0.00000000007*P17 + 7.74</f>
         <v>4064.94</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:S10">

--- a/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
+++ b/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>dim</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>Big Red run time estimate (m)</t>
-  </si>
-  <si>
-    <t>check earlier run from 12/23</t>
-  </si>
-  <si>
-    <t>check later run from 12/23</t>
   </si>
   <si>
     <t>distance</t>
@@ -193,13 +187,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -236,11 +228,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>(dimensionality</a:t>
+              <a:t>(complexity</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> * #trainingSteps * mapSize / #processes) vs runtime  </a:t>
+              <a:t> guess) vs runtime  </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -270,8 +262,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.37404607757363673"/>
-                  <c:y val="-9.0929036347236827E-2"/>
+                  <c:x val="0.42841722907762575"/>
+                  <c:y val="-8.4308264905997257E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -279,28 +271,37 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$P$6,Sheet1!$P$7,Sheet1!$P$10)</c:f>
+              <c:f>(Sheet1!$P$10,Sheet1!$P$11,Sheet1!$P$12,Sheet1!$P$13,Sheet1!$P$14,Sheet1!$P$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>108675000000</c:v>
+                  <c:v>2.1735E+17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1086750000000</c:v>
+                  <c:v>2.1735E+19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579600000000</c:v>
+                  <c:v>4.6368E+19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1592E+19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.796E+19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.864E+20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$R$6,Sheet1!$R$7,Sheet1!$R$10)</c:f>
+              <c:f>(Sheet1!$R$10,Sheet1!$R$11,Sheet1!$R$12,Sheet1!$R$13,Sheet1!$R$14,Sheet1!$R$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -310,27 +311,36 @@
                 <c:pt idx="2">
                   <c:v>51</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62916096"/>
-        <c:axId val="62917632"/>
+        <c:axId val="63112704"/>
+        <c:axId val="63114240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62916096"/>
+        <c:axId val="63112704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62917632"/>
+        <c:crossAx val="63114240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62917632"/>
+        <c:axId val="63114240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +348,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62916096"/>
+        <c:crossAx val="63112704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -351,7 +361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -362,15 +372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -677,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
@@ -740,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -781,7 +791,7 @@
         <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F12" si="0">D2/E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2/E2</f>
         <v>100</v>
       </c>
       <c r="G2">
@@ -791,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I12" si="1">G2*H2</f>
+        <f t="shared" ref="I2:I3" si="1">G2*H2</f>
         <v>112</v>
       </c>
       <c r="J2" t="s">
@@ -804,18 +814,18 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="P2" s="1">
-        <f>B2*D2*I2/N2</f>
-        <v>84000000</v>
+        <f>B2*C2*D2*F2*I2/N2</f>
+        <v>84000000000000</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q12" si="2">0.00000000007*P2 + 7.74</f>
-        <v>7.7458800000000005</v>
+        <f>0.0000000000000000005*P2 + 43.369</f>
+        <v>43.369042</v>
       </c>
       <c r="R2">
         <v>1.3</v>
@@ -861,18 +871,18 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <f>B3*D3*I3/N3</f>
-        <v>336000000</v>
+        <f t="shared" ref="P3" si="2">B3*C3*D3*F3*I3/N3</f>
+        <v>336000000000000</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="2"/>
-        <v>7.7635200000000006</v>
+        <f t="shared" ref="Q3" si="3">0.0000000000000000005*P3 + 43.369</f>
+        <v>43.369168000000002</v>
       </c>
       <c r="R3">
         <v>5.2</v>
@@ -880,59 +890,59 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <v>2000000</v>
       </c>
       <c r="D4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E4">
         <v>10000</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>D4/E4</f>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <f>G4*H4</f>
+        <v>75600</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <f>B4*D4*I4/N4</f>
-        <v>21000000</v>
+        <f>B4*C4*D4*F4*I4/N4</f>
+        <v>4.536E+17</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>7.7414700000000005</v>
+        <f>0.0000000000000000005*P4 + 43.369</f>
+        <v>43.595799999999997</v>
       </c>
       <c r="R4">
-        <v>0.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -940,19 +950,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2300</v>
       </c>
       <c r="C5">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>D5/E5</f>
         <v>10</v>
       </c>
       <c r="G5">
@@ -962,39 +972,48 @@
         <v>300</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f>G5*H5</f>
         <v>75600</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
       </c>
       <c r="P5" s="1">
-        <f>B5*D5*I5/N5</f>
-        <v>22680000000</v>
+        <f>B5*C5*D5*F5*I5/N5</f>
+        <v>4.347E+17</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>9.3276000000000003</v>
+        <f>0.0000000000000000005*P5 + 43.369</f>
+        <v>43.586350000000003</v>
       </c>
       <c r="R5">
-        <v>60</v>
+        <v>6.5</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2300</v>
@@ -1003,14 +1022,14 @@
         <v>200000</v>
       </c>
       <c r="D6">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>D6/E6</f>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>252</v>
@@ -1019,7 +1038,7 @@
         <v>300</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f>G6*H6</f>
         <v>75600</v>
       </c>
       <c r="J6" t="s">
@@ -1032,213 +1051,84 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
-        <f>B6*D6*I6/N6</f>
-        <v>108675000000</v>
+        <f>B6*C6*D6*F6*I6/N6</f>
+        <v>4.347E+19</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>15.347250000000001</v>
+        <f>0.0000000000000000005*P6 + 43.369</f>
+        <v>65.103999999999999</v>
       </c>
       <c r="R6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2300</v>
-      </c>
-      <c r="C7">
-        <v>200000</v>
-      </c>
-      <c r="D7">
-        <v>50000</v>
-      </c>
-      <c r="E7">
-        <v>500</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>252</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>75600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>250</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1">
-        <f>B7*D7*I7/N7</f>
-        <v>1086750000000</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>83.8125</v>
-      </c>
-      <c r="R7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2300</v>
-      </c>
-      <c r="C8">
-        <v>200000</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>500</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>252</v>
-      </c>
-      <c r="H8">
-        <v>300</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>75600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>250</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8" s="1">
-        <f>B8*D8*I8/N8</f>
-        <v>217350000000</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>22.954500000000003</v>
-      </c>
-      <c r="R8">
-        <v>6.5</v>
-      </c>
-      <c r="S8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="T8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>2300</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="D9">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f>D9/E9</f>
         <v>100</v>
       </c>
       <c r="G9">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>75600</v>
+        <f>G9*H9</f>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P9" s="1">
-        <f>B9*D9*I9/N9</f>
-        <v>2173500000000</v>
+        <f>B9*C9*D9*F9*I9/N9</f>
+        <v>21000000000000</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>159.88500000000002</v>
+        <f>0.0000000000000000005*P9 + 43.369</f>
+        <v>43.369010500000002</v>
       </c>
       <c r="R9">
-        <v>44</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>19</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1252,14 +1142,14 @@
         <v>200000</v>
       </c>
       <c r="D10">
-        <v>200000</v>
+        <v>5000</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f>D10/E10</f>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>252</v>
@@ -1268,7 +1158,7 @@
         <v>300</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f>G10*H10</f>
         <v>75600</v>
       </c>
       <c r="J10" t="s">
@@ -1281,27 +1171,24 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1">
-        <f>B10*D10*I10/N10</f>
-        <v>579600000000</v>
+        <f>B10*C10*D10*F10*I10/N10</f>
+        <v>2.1735E+17</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>48.312000000000005</v>
+        <f>0.0000000000000000005*P10 + 43.369</f>
+        <v>43.477674999999998</v>
       </c>
       <c r="R10">
-        <v>51</v>
-      </c>
-      <c r="T10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1315,14 +1202,14 @@
         <v>200000</v>
       </c>
       <c r="D11">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="E11">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
         <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11/E11</f>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>252</v>
@@ -1330,8 +1217,8 @@
       <c r="H11">
         <v>300</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="1"/>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
         <v>75600</v>
       </c>
       <c r="J11" t="s">
@@ -1344,24 +1231,24 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11" s="6">
-        <f>B11*D11*I11/N11</f>
-        <v>579600000000</v>
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <f>B11*C11*D11*F11*I11/N11</f>
+        <v>2.1735E+19</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>48.312000000000005</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
+        <f>0.0000000000000000005*P11 + 43.369</f>
+        <v>54.236499999999999</v>
+      </c>
+      <c r="R11">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1372,17 +1259,17 @@
         <v>2300</v>
       </c>
       <c r="C12">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="D12">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E12">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
         <v>500</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12/E12</f>
+        <v>400</v>
       </c>
       <c r="G12">
         <v>252</v>
@@ -1390,8 +1277,8 @@
       <c r="H12">
         <v>300</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" si="1"/>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
         <v>75600</v>
       </c>
       <c r="J12" t="s">
@@ -1404,156 +1291,261 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N12">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
-      <c r="P12" s="6">
-        <f>B12*D12*I12/N12</f>
-        <v>386400000000</v>
+      <c r="P12" s="1">
+        <f>B12*C12*D12*F12*I12/N12</f>
+        <v>4.6368E+19</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>34.788000000000004</v>
-      </c>
-      <c r="R12" t="s">
+        <f>0.0000000000000000005*P12 + 43.369</f>
+        <v>66.552999999999997</v>
+      </c>
+      <c r="R12">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2300</v>
+      </c>
+      <c r="C13">
+        <v>200000</v>
+      </c>
+      <c r="D13">
+        <v>200000</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="4">
+        <f>D13/E13</f>
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>252</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" s="4">
+        <f>G13*H13</f>
+        <v>75600</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>250</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>27</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
+        <f>B13*C13*D13*F13*I13/N13</f>
+        <v>1.1592E+19</v>
+      </c>
+      <c r="Q13">
+        <f>0.0000000000000000005*P13 + 43.369</f>
+        <v>49.164999999999999</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2300</v>
+      </c>
+      <c r="C14">
+        <v>200000</v>
+      </c>
+      <c r="D14">
+        <v>500000</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="4">
+        <f>D14/E14</f>
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>252</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14" s="4">
+        <f>G14*H14</f>
+        <v>75600</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>250</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>150</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <f>B14*C14*D14*F14*I14/N14</f>
+        <v>5.796E+19</v>
+      </c>
+      <c r="Q14">
+        <f>0.0000000000000000005*P14 + 43.369</f>
+        <v>72.349000000000004</v>
+      </c>
+      <c r="R14">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>2300</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15">
         <v>2000000</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="D15">
+        <v>500000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="4">
+        <f>D15/E15</f>
+        <v>500</v>
+      </c>
+      <c r="G15">
         <v>252</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>300</v>
       </c>
       <c r="I15" s="4">
         <f>G15*H15</f>
         <v>75600</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3">
-        <v>60</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="5">
-        <f>B15*D15*I15/N15</f>
-        <v>5796000000000</v>
-      </c>
-      <c r="Q15" s="3">
-        <f>0.00000000007*P15 + 7.74</f>
-        <v>413.46000000000004</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>225</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <f>B15*C15*D15*F15*I15/N15</f>
+        <v>3.864E+20</v>
+      </c>
+      <c r="Q15">
+        <f>0.0000000000000000005*P15 + 43.369</f>
+        <v>236.56900000000002</v>
+      </c>
+      <c r="R15">
+        <v>246</v>
+      </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
+    <row r="18" spans="1:20">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>2300</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C18" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D18" s="3">
         <f>2000000*50</f>
         <v>100000000</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="E18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="4">
+        <f>D18/E18</f>
+        <v>2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>252</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="I16" s="4">
-        <f>G16*H16</f>
+      <c r="I18" s="4">
+        <f>G18*H18</f>
         <v>75600</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="N16" s="3">
-        <v>60</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="5">
-        <f>B16*D16*I16/N16</f>
-        <v>289800000000000</v>
-      </c>
-      <c r="Q16" s="3">
-        <f>0.00000000007*P16 + 7.74</f>
-        <v>20293.740000000002</v>
-      </c>
-      <c r="R16" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3">
+        <f>O18*100</f>
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <f>B18*C18*D18*F18*I18/N18</f>
+        <v>2.3183999999999999E+23</v>
+      </c>
+      <c r="Q18">
+        <f>0.0000000000000000005*P18 + 43.369</f>
+        <v>115963.36900000001</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <f>2000000*50</f>
-        <v>100000000</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>252</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="4">
-        <f>G17*H17</f>
-        <v>75600</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3">
-        <f>O17*100</f>
-        <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3</v>
-      </c>
-      <c r="P17" s="5">
-        <f>B17*D17*I17/N17</f>
-        <v>57960000000000</v>
-      </c>
-      <c r="Q17" s="3">
-        <f>0.00000000007*P17 + 7.74</f>
-        <v>4064.94</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:S10">

--- a/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
+++ b/test-devel/ParallelBatchSOM/run-analysis/ParallelBatchSOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>dim</t>
   </si>
@@ -262,7 +262,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.42841722907762575"/>
+                  <c:x val="0.42841722907762586"/>
                   <c:y val="-8.4308264905997257E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -324,23 +324,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63112704"/>
-        <c:axId val="63114240"/>
+        <c:axId val="62584320"/>
+        <c:axId val="62585856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63112704"/>
+        <c:axId val="62584320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63114240"/>
+        <c:crossAx val="62585856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63114240"/>
+        <c:axId val="62585856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +348,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63112704"/>
+        <c:crossAx val="62584320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -361,7 +361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -690,7 +690,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,7 +698,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -706,11 +706,12 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31" customWidth="1"/>
     <col min="20" max="20" width="28.140625" customWidth="1"/>
   </cols>
@@ -1091,7 +1092,7 @@
         <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <f>D9/E9</f>
+        <f t="shared" ref="F9:F16" si="4">D9/E9</f>
         <v>100</v>
       </c>
       <c r="G9">
@@ -1101,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f>G9*H9</f>
+        <f t="shared" ref="I9:I16" si="5">G9*H9</f>
         <v>112</v>
       </c>
       <c r="J9" t="s">
@@ -1120,11 +1121,11 @@
         <v>16</v>
       </c>
       <c r="P9" s="1">
-        <f>B9*C9*D9*F9*I9/N9</f>
+        <f t="shared" ref="P9:P16" si="6">B9*C9*D9*F9*I9/N9</f>
         <v>21000000000000</v>
       </c>
       <c r="Q9">
-        <f>0.0000000000000000005*P9 + 43.369</f>
+        <f t="shared" ref="Q9:Q16" si="7">0.0000000000000000005*P9 + 43.369</f>
         <v>43.369010500000002</v>
       </c>
       <c r="R9">
@@ -1148,7 +1149,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="1">
-        <f>D10/E10</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G10">
@@ -1158,7 +1159,7 @@
         <v>300</v>
       </c>
       <c r="I10" s="1">
-        <f>G10*H10</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J10" t="s">
@@ -1180,11 +1181,11 @@
         <v>2</v>
       </c>
       <c r="P10" s="1">
-        <f>B10*C10*D10*F10*I10/N10</f>
+        <f t="shared" si="6"/>
         <v>2.1735E+17</v>
       </c>
       <c r="Q10">
-        <f>0.0000000000000000005*P10 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>43.477674999999998</v>
       </c>
       <c r="R10">
@@ -1208,7 +1209,7 @@
         <v>500</v>
       </c>
       <c r="F11" s="1">
-        <f>D11/E11</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G11">
@@ -1218,7 +1219,7 @@
         <v>300</v>
       </c>
       <c r="I11" s="1">
-        <f>G11*H11</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J11" t="s">
@@ -1240,11 +1241,11 @@
         <v>2</v>
       </c>
       <c r="P11" s="1">
-        <f>B11*C11*D11*F11*I11/N11</f>
+        <f t="shared" si="6"/>
         <v>2.1735E+19</v>
       </c>
       <c r="Q11">
-        <f>0.0000000000000000005*P11 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>54.236499999999999</v>
       </c>
       <c r="R11">
@@ -1268,7 +1269,7 @@
         <v>500</v>
       </c>
       <c r="F12" s="1">
-        <f>D12/E12</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="G12">
@@ -1278,7 +1279,7 @@
         <v>300</v>
       </c>
       <c r="I12" s="1">
-        <f>G12*H12</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J12" t="s">
@@ -1300,11 +1301,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="1">
-        <f>B12*C12*D12*F12*I12/N12</f>
+        <f t="shared" si="6"/>
         <v>4.6368E+19</v>
       </c>
       <c r="Q12">
-        <f>0.0000000000000000005*P12 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>66.552999999999997</v>
       </c>
       <c r="R12">
@@ -1331,7 +1332,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="4">
-        <f>D13/E13</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G13">
@@ -1341,7 +1342,7 @@
         <v>300</v>
       </c>
       <c r="I13" s="4">
-        <f>G13*H13</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J13" t="s">
@@ -1363,11 +1364,11 @@
         <v>3</v>
       </c>
       <c r="P13" s="1">
-        <f>B13*C13*D13*F13*I13/N13</f>
+        <f t="shared" si="6"/>
         <v>1.1592E+19</v>
       </c>
       <c r="Q13">
-        <f>0.0000000000000000005*P13 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>49.164999999999999</v>
       </c>
       <c r="R13">
@@ -1391,7 +1392,7 @@
         <v>1000</v>
       </c>
       <c r="F14" s="4">
-        <f>D14/E14</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="G14">
@@ -1401,7 +1402,7 @@
         <v>300</v>
       </c>
       <c r="I14" s="4">
-        <f>G14*H14</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J14" t="s">
@@ -1423,11 +1424,11 @@
         <v>3</v>
       </c>
       <c r="P14" s="1">
-        <f>B14*C14*D14*F14*I14/N14</f>
+        <f t="shared" si="6"/>
         <v>5.796E+19</v>
       </c>
       <c r="Q14">
-        <f>0.0000000000000000005*P14 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>72.349000000000004</v>
       </c>
       <c r="R14">
@@ -1451,7 +1452,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="4">
-        <f>D15/E15</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="G15">
@@ -1461,7 +1462,7 @@
         <v>300</v>
       </c>
       <c r="I15" s="4">
-        <f>G15*H15</f>
+        <f t="shared" si="5"/>
         <v>75600</v>
       </c>
       <c r="J15" t="s">
@@ -1483,15 +1484,69 @@
         <v>3</v>
       </c>
       <c r="P15" s="1">
-        <f>B15*C15*D15*F15*I15/N15</f>
+        <f t="shared" si="6"/>
         <v>3.864E+20</v>
       </c>
       <c r="Q15">
-        <f>0.0000000000000000005*P15 + 43.369</f>
+        <f t="shared" si="7"/>
         <v>236.56900000000002</v>
       </c>
       <c r="R15">
         <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16">
+        <v>2300</v>
+      </c>
+      <c r="C16">
+        <v>2000000</v>
+      </c>
+      <c r="D16">
+        <v>1000000</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>252</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="5"/>
+        <v>75600</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>225</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5456E+21</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>816.1690000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
